--- a/programming_languages/C_vs_Python_Mann-WhitneyUTest.xlsx
+++ b/programming_languages/C_vs_Python_Mann-WhitneyUTest.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="22">
   <si>
     <t>Time Mann-WhitneyUTest</t>
   </si>
@@ -63,31 +63,28 @@
     <t>Graphics Card Power Mann-WhitneyUTest</t>
   </si>
   <si>
+    <t>Processor Power Mann-WhitneyUTest</t>
+  </si>
+  <si>
+    <t>Monitor Power Mann-WhitneyUTest</t>
+  </si>
+  <si>
+    <t>DUT Power Mann-WhitneyUTest</t>
+  </si>
+  <si>
+    <t>HDD Consumption Mann-WhitneyUTest</t>
+  </si>
+  <si>
+    <t>Graphics Card Consumption Mann-WhitneyUTest</t>
+  </si>
+  <si>
+    <t>Processor Consumption Mann-WhitneyUTest</t>
+  </si>
+  <si>
+    <t>Monitor Consumption Mann-WhitneyUTest</t>
+  </si>
+  <si>
     <t>medium</t>
-  </si>
-  <si>
-    <t>Processor Power Mann-WhitneyUTest</t>
-  </si>
-  <si>
-    <t>Monitor Power Mann-WhitneyUTest</t>
-  </si>
-  <si>
-    <t>DUT Power Mann-WhitneyUTest</t>
-  </si>
-  <si>
-    <t>HDD Consumption Mann-WhitneyUTest</t>
-  </si>
-  <si>
-    <t>Graphics Card Consumption Mann-WhitneyUTest</t>
-  </si>
-  <si>
-    <t>Processor Consumption Mann-WhitneyUTest</t>
-  </si>
-  <si>
-    <t>Monitor Consumption Mann-WhitneyUTest</t>
-  </si>
-  <si>
-    <t>small</t>
   </si>
   <si>
     <t>DUT Consumption Mann-WhitneyUTest</t>
@@ -248,22 +245,22 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-42.63307347480847</v>
+        <v>-49.06457555774559</v>
       </c>
       <c r="D4" t="n">
-        <v>5888.0</v>
+        <v>5520.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5556006459407441</v>
+        <v>0.6603869878113913</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>1.1386069864727233E-10</v>
+        <v>7.738687468616945E-11</v>
       </c>
       <c r="H4" t="n">
-        <v>1.7963974752177592E-10</v>
+        <v>1.6369794408888083E-10</v>
       </c>
     </row>
   </sheetData>
@@ -280,7 +277,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.25390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.3671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.41015625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.8515625" customWidth="true" bestFit="true"/>
@@ -289,7 +286,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -328,25 +325,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>3.214688293891775E-98</v>
+        <v>1.194469118430368E-146</v>
       </c>
       <c r="C4" t="n">
-        <v>-21.033850652542508</v>
+        <v>-25.788466607468763</v>
       </c>
       <c r="D4" t="n">
-        <v>5888.0</v>
+        <v>5520.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2741163152611826</v>
+        <v>0.347101092582313</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>1.7250290085257802E-10</v>
+        <v>1.9628298986162918E-10</v>
       </c>
       <c r="H4" t="n">
-        <v>1.486383238713529E-10</v>
+        <v>2.0085377805401095E-10</v>
       </c>
     </row>
   </sheetData>
@@ -372,7 +369,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -414,19 +411,19 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-44.631831781129854</v>
+        <v>-51.008123015834556</v>
       </c>
       <c r="D4" t="n">
-        <v>5888.0</v>
+        <v>5520.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5816487657585138</v>
+        <v>0.6865462572420474</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>2.2215085326848794E-10</v>
+        <v>1.741109478814451E-10</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -497,22 +494,22 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-63.45077884261651</v>
+        <v>-61.46490478662485</v>
       </c>
       <c r="D4" t="n">
-        <v>5888.0</v>
+        <v>5520.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8269001232395762</v>
+        <v>0.8272898087211782</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5476331327590742E-10</v>
+        <v>1.4542123061289658E-10</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5900181171701888E-10</v>
+        <v>1.4455647789901604E-10</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +526,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.3671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="2.19140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.41015625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.8515625" customWidth="true" bestFit="true"/>
@@ -577,25 +574,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>7.563583666198293E-242</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-33.210621243365146</v>
+        <v>-39.9148714494423</v>
       </c>
       <c r="D4" t="n">
-        <v>5888.0</v>
+        <v>5520.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.43280582681448276</v>
+        <v>0.5372361102839478</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5850498691349912E-10</v>
+        <v>1.813854622056965E-10</v>
       </c>
       <c r="H4" t="n">
-        <v>1.8568924176065593E-10</v>
+        <v>1.6964174509581653E-10</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +610,7 @@
   <cols>
     <col min="1" max="1" width="35.1953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="2.19140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.41015625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.49609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.8515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.0625" customWidth="true" bestFit="true"/>
@@ -621,7 +618,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -663,13 +660,13 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-60.55357190026439</v>
+        <v>-59.670705056022044</v>
       </c>
       <c r="D4" t="n">
-        <v>5888.0</v>
+        <v>5520.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7891432852404111</v>
+        <v>0.8031406921303236</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -704,7 +701,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -746,22 +743,22 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-66.14707703407369</v>
+        <v>-64.1498446676166</v>
       </c>
       <c r="D4" t="n">
-        <v>5888.0</v>
+        <v>5520.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.862038688084254</v>
+        <v>0.8634278847221823</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1807411432206436E-10</v>
+        <v>1.6834256211240017E-10</v>
       </c>
       <c r="H4" t="n">
-        <v>1.4285073124398195E-10</v>
+        <v>1.4702372652664053E-10</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +784,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -829,13 +826,13 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-60.787388185182685</v>
+        <v>-59.17425033853271</v>
       </c>
       <c r="D4" t="n">
-        <v>5888.0</v>
+        <v>5520.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7921904143433324</v>
+        <v>0.7964586362531321</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -864,13 +861,13 @@
     <col min="2" max="2" width="2.19140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.41015625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.49609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.8515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.0625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -912,19 +909,19 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-51.77252859335553</v>
+        <v>-57.605149043317624</v>
       </c>
       <c r="D4" t="n">
-        <v>5888.0</v>
+        <v>5520.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6747074039935425</v>
+        <v>0.7753392427571364</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>1.1230039120846413E-10</v>
+        <v>9.567013847799899E-11</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -945,15 +942,15 @@
   <cols>
     <col min="1" max="1" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="2.19140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.41015625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.49609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.62109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.8515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.0625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -995,19 +992,19 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-44.54346910050613</v>
+        <v>-51.45636045253338</v>
       </c>
       <c r="D4" t="n">
-        <v>5888.0</v>
+        <v>5520.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5804972099725907</v>
+        <v>0.6925793303356372</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>1.906486080116565E-10</v>
+        <v>1.8468904183777113E-10</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -1030,13 +1027,13 @@
     <col min="2" max="2" width="2.19140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.41015625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.49609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.8515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="10.0625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1078,19 +1075,19 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-44.78197768490827</v>
+        <v>-51.26197952463122</v>
       </c>
       <c r="D4" t="n">
-        <v>5888.0</v>
+        <v>5520.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5836054898303529</v>
+        <v>0.6899630509934424</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>2.153778266844597E-10</v>
+        <v>1.7571144539374473E-10</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
